--- a/GUI + Reviews/202512/Review 202512/Dataiku/WIFRP_EMS_2025-12-11 23_59_59_2025-12-15-09-39-53.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/WIFRP_EMS_2025-12-11 23_59_59_2025-12-15-09-39-53.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_A6F652D121E45E2A7D1784F43C9AE23B4BEEED40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A5B378-F2E1-48FF-A30A-C37A3B55987B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -360,8 +382,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,13 +446,248 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Index Composition"/>
+      <sheetName val="Inclusion"/>
+      <sheetName val="Exclusion"/>
+      <sheetName val="Full Universe"/>
+      <sheetName val="Eligible Companies"/>
+      <sheetName val="Final Selection"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>IE00B4BNMY34</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>US0079031078</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>DE0008404005</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>US0378331005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>SE0007100581</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>US0527691069</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>US0640581007</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>US0605051046</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>GB0031348658</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>US09290D1019</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>US1273871087</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>US14448C1045</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>US12504L1098</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>US03073E1055</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>US17275R1023</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>US1729674242</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>GB00BD6K4575</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>US2193501051</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>IE0001827041</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>US2441991054</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>DE0005140008</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>DE0005552004</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>GB0002374006</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>US2538681030</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>US29444U7000</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>US31428X1063</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>US38141G1040</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>ES0148396007</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>JP3496400007</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>DE0007100000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>US6174464486</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>US69608A1088</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>GB00B2B0DG97</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>US79466L3024</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>JP3436100006</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>US8718291078</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>US88160R1014</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>US2546871060</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>IE00BK9ZQ967</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>SE0000115446</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -468,7 +725,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -502,6 +759,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -536,9 +794,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -711,14 +970,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +1005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -769,8 +1030,12 @@
       <c r="H2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="b">
+        <f>ISNUMBER(MATCH(B2,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -795,8 +1060,12 @@
       <c r="H3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="b">
+        <f>ISNUMBER(MATCH(B3,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -821,8 +1090,12 @@
       <c r="H4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="b">
+        <f>ISNUMBER(MATCH(B4,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -847,8 +1120,12 @@
       <c r="H5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="b">
+        <f>ISNUMBER(MATCH(B5,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -873,8 +1150,12 @@
       <c r="H6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="b">
+        <f>ISNUMBER(MATCH(B6,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -899,8 +1180,12 @@
       <c r="H7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="b">
+        <f>ISNUMBER(MATCH(B7,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -925,8 +1210,12 @@
       <c r="H8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="b">
+        <f>ISNUMBER(MATCH(B8,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -951,8 +1240,12 @@
       <c r="H9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="b">
+        <f>ISNUMBER(MATCH(B9,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -977,8 +1270,12 @@
       <c r="H10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="b">
+        <f>ISNUMBER(MATCH(B10,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1003,8 +1300,12 @@
       <c r="H11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="b">
+        <f>ISNUMBER(MATCH(B11,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1029,8 +1330,12 @@
       <c r="H12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="b">
+        <f>ISNUMBER(MATCH(B12,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1055,8 +1360,12 @@
       <c r="H13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="b">
+        <f>ISNUMBER(MATCH(B13,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1081,8 +1390,12 @@
       <c r="H14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="b">
+        <f>ISNUMBER(MATCH(B14,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1107,8 +1420,12 @@
       <c r="H15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="b">
+        <f>ISNUMBER(MATCH(B15,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1133,8 +1450,12 @@
       <c r="H16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="b">
+        <f>ISNUMBER(MATCH(B16,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1159,8 +1480,12 @@
       <c r="H17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="b">
+        <f>ISNUMBER(MATCH(B17,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1185,8 +1510,12 @@
       <c r="H18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="b">
+        <f>ISNUMBER(MATCH(B18,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1211,8 +1540,12 @@
       <c r="H19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="b">
+        <f>ISNUMBER(MATCH(B19,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1237,8 +1570,12 @@
       <c r="H20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="b">
+        <f>ISNUMBER(MATCH(B20,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1263,8 +1600,12 @@
       <c r="H21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="b">
+        <f>ISNUMBER(MATCH(B21,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1289,8 +1630,12 @@
       <c r="H22" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="b">
+        <f>ISNUMBER(MATCH(B22,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1315,8 +1660,12 @@
       <c r="H23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="b">
+        <f>ISNUMBER(MATCH(B23,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1341,8 +1690,12 @@
       <c r="H24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="b">
+        <f>ISNUMBER(MATCH(B24,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1367,8 +1720,12 @@
       <c r="H25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="b">
+        <f>ISNUMBER(MATCH(B25,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1393,8 +1750,12 @@
       <c r="H26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="b">
+        <f>ISNUMBER(MATCH(B26,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1419,8 +1780,12 @@
       <c r="H27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="b">
+        <f>ISNUMBER(MATCH(B27,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1445,8 +1810,12 @@
       <c r="H28" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="b">
+        <f>ISNUMBER(MATCH(B28,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1471,8 +1840,12 @@
       <c r="H29" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="b">
+        <f>ISNUMBER(MATCH(B29,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1497,8 +1870,12 @@
       <c r="H30" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="b">
+        <f>ISNUMBER(MATCH(B30,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1523,8 +1900,12 @@
       <c r="H31" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="b">
+        <f>ISNUMBER(MATCH(B31,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1549,8 +1930,12 @@
       <c r="H32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="b">
+        <f>ISNUMBER(MATCH(B32,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1575,8 +1960,12 @@
       <c r="H33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="b">
+        <f>ISNUMBER(MATCH(B33,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1601,8 +1990,12 @@
       <c r="H34" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="b">
+        <f>ISNUMBER(MATCH(B34,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1627,8 +2020,12 @@
       <c r="H35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="b">
+        <f>ISNUMBER(MATCH(B35,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1653,8 +2050,12 @@
       <c r="H36" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="b">
+        <f>ISNUMBER(MATCH(B36,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1679,8 +2080,12 @@
       <c r="H37" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="b">
+        <f>ISNUMBER(MATCH(B37,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1697,7 +2102,7 @@
         <v>0.85</v>
       </c>
       <c r="F38">
-        <v>0.48131185738931</v>
+        <v>0.48131185738930998</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -1705,8 +2110,12 @@
       <c r="H38" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="b">
+        <f>ISNUMBER(MATCH(B38,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1731,8 +2140,12 @@
       <c r="H39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="b">
+        <f>ISNUMBER(MATCH(B39,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1757,8 +2170,12 @@
       <c r="H40" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="b">
+        <f>ISNUMBER(MATCH(B40,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1783,21 +2200,28 @@
       <c r="H41" t="s">
         <v>103</v>
       </c>
+      <c r="I41" t="b">
+        <f>ISNUMBER(MATCH(B41,'[1]Index Composition'!$B$2:$B$41,0))</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1819,7 +2243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1830,7 +2254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1841,7 +2265,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1854,18 +2278,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1876,7 +2303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -1887,7 +2314,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -1898,7 +2325,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -1909,7 +2336,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -1922,5 +2349,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/GUI + Reviews/202512/Review 202512/Dataiku/WIFRP_EMS_2025-12-11 23_59_59_2025-12-15-09-39-53.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/WIFRP_EMS_2025-12-11 23_59_59_2025-12-15-09-39-53.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_A6F652D121E45E2A7D1784F43C9AE23B4BEEED40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A5B378-F2E1-48FF-A30A-C37A3B55987B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -382,8 +360,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,248 +424,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Index Composition"/>
-      <sheetName val="Inclusion"/>
-      <sheetName val="Exclusion"/>
-      <sheetName val="Full Universe"/>
-      <sheetName val="Eligible Companies"/>
-      <sheetName val="Final Selection"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>IE00B4BNMY34</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>US0079031078</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>DE0008404005</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>US0378331005</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>SE0007100581</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>US0527691069</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>US0640581007</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>US0605051046</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>GB0031348658</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>US09290D1019</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>US1273871087</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>US14448C1045</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>US12504L1098</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>US03073E1055</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>US17275R1023</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>US1729674242</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>GB00BD6K4575</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>US2193501051</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>IE0001827041</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>US2441991054</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>DE0005140008</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>DE0005552004</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>GB0002374006</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>US2538681030</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>US29444U7000</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>US31428X1063</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>US38141G1040</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>ES0148396007</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>JP3496400007</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>DE0007100000</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>US6174464486</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>US69608A1088</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>GB00B2B0DG97</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>US79466L3024</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>JP3436100006</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>US8718291078</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>US88160R1014</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>US2546871060</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>IE00BK9ZQ967</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>SE0000115446</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -725,7 +468,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -759,7 +502,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -794,10 +536,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -970,16 +711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1030,12 +769,8 @@
       <c r="H2" t="s">
         <v>98</v>
       </c>
-      <c r="I2" t="b">
-        <f>ISNUMBER(MATCH(B2,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1060,12 +795,8 @@
       <c r="H3" t="s">
         <v>98</v>
       </c>
-      <c r="I3" t="b">
-        <f>ISNUMBER(MATCH(B3,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1090,12 +821,8 @@
       <c r="H4" t="s">
         <v>99</v>
       </c>
-      <c r="I4" t="b">
-        <f>ISNUMBER(MATCH(B4,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1120,12 +847,8 @@
       <c r="H5" t="s">
         <v>98</v>
       </c>
-      <c r="I5" t="b">
-        <f>ISNUMBER(MATCH(B5,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1150,12 +873,8 @@
       <c r="H6" t="s">
         <v>98</v>
       </c>
-      <c r="I6" t="b">
-        <f>ISNUMBER(MATCH(B6,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1180,12 +899,8 @@
       <c r="H7" t="s">
         <v>98</v>
       </c>
-      <c r="I7" t="b">
-        <f>ISNUMBER(MATCH(B7,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1210,12 +925,8 @@
       <c r="H8" t="s">
         <v>98</v>
       </c>
-      <c r="I8" t="b">
-        <f>ISNUMBER(MATCH(B8,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1240,12 +951,8 @@
       <c r="H9" t="s">
         <v>100</v>
       </c>
-      <c r="I9" t="b">
-        <f>ISNUMBER(MATCH(B9,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1270,12 +977,8 @@
       <c r="H10" t="s">
         <v>98</v>
       </c>
-      <c r="I10" t="b">
-        <f>ISNUMBER(MATCH(B10,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1300,12 +1003,8 @@
       <c r="H11" t="s">
         <v>98</v>
       </c>
-      <c r="I11" t="b">
-        <f>ISNUMBER(MATCH(B11,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1330,12 +1029,8 @@
       <c r="H12" t="s">
         <v>98</v>
       </c>
-      <c r="I12" t="b">
-        <f>ISNUMBER(MATCH(B12,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1360,12 +1055,8 @@
       <c r="H13" t="s">
         <v>98</v>
       </c>
-      <c r="I13" t="b">
-        <f>ISNUMBER(MATCH(B13,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1390,12 +1081,8 @@
       <c r="H14" t="s">
         <v>98</v>
       </c>
-      <c r="I14" t="b">
-        <f>ISNUMBER(MATCH(B14,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1420,12 +1107,8 @@
       <c r="H15" t="s">
         <v>98</v>
       </c>
-      <c r="I15" t="b">
-        <f>ISNUMBER(MATCH(B15,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1450,12 +1133,8 @@
       <c r="H16" t="s">
         <v>98</v>
       </c>
-      <c r="I16" t="b">
-        <f>ISNUMBER(MATCH(B16,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1480,12 +1159,8 @@
       <c r="H17" t="s">
         <v>100</v>
       </c>
-      <c r="I17" t="b">
-        <f>ISNUMBER(MATCH(B17,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1510,12 +1185,8 @@
       <c r="H18" t="s">
         <v>98</v>
       </c>
-      <c r="I18" t="b">
-        <f>ISNUMBER(MATCH(B18,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1540,12 +1211,8 @@
       <c r="H19" t="s">
         <v>98</v>
       </c>
-      <c r="I19" t="b">
-        <f>ISNUMBER(MATCH(B19,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1570,12 +1237,8 @@
       <c r="H20" t="s">
         <v>98</v>
       </c>
-      <c r="I20" t="b">
-        <f>ISNUMBER(MATCH(B20,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1600,12 +1263,8 @@
       <c r="H21" t="s">
         <v>99</v>
       </c>
-      <c r="I21" t="b">
-        <f>ISNUMBER(MATCH(B21,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1630,12 +1289,8 @@
       <c r="H22" t="s">
         <v>99</v>
       </c>
-      <c r="I22" t="b">
-        <f>ISNUMBER(MATCH(B22,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1660,12 +1315,8 @@
       <c r="H23" t="s">
         <v>100</v>
       </c>
-      <c r="I23" t="b">
-        <f>ISNUMBER(MATCH(B23,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1690,12 +1341,8 @@
       <c r="H24" t="s">
         <v>98</v>
       </c>
-      <c r="I24" t="b">
-        <f>ISNUMBER(MATCH(B24,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1720,12 +1367,8 @@
       <c r="H25" t="s">
         <v>101</v>
       </c>
-      <c r="I25" t="b">
-        <f>ISNUMBER(MATCH(B25,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1750,12 +1393,8 @@
       <c r="H26" t="s">
         <v>98</v>
       </c>
-      <c r="I26" t="b">
-        <f>ISNUMBER(MATCH(B26,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1780,12 +1419,8 @@
       <c r="H27" t="s">
         <v>98</v>
       </c>
-      <c r="I27" t="b">
-        <f>ISNUMBER(MATCH(B27,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1810,12 +1445,8 @@
       <c r="H28" t="s">
         <v>98</v>
       </c>
-      <c r="I28" t="b">
-        <f>ISNUMBER(MATCH(B28,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1840,12 +1471,8 @@
       <c r="H29" t="s">
         <v>99</v>
       </c>
-      <c r="I29" t="b">
-        <f>ISNUMBER(MATCH(B29,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1870,12 +1497,8 @@
       <c r="H30" t="s">
         <v>102</v>
       </c>
-      <c r="I30" t="b">
-        <f>ISNUMBER(MATCH(B30,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1900,12 +1523,8 @@
       <c r="H31" t="s">
         <v>99</v>
       </c>
-      <c r="I31" t="b">
-        <f>ISNUMBER(MATCH(B31,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1930,12 +1549,8 @@
       <c r="H32" t="s">
         <v>98</v>
       </c>
-      <c r="I32" t="b">
-        <f>ISNUMBER(MATCH(B32,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1960,12 +1575,8 @@
       <c r="H33" t="s">
         <v>98</v>
       </c>
-      <c r="I33" t="b">
-        <f>ISNUMBER(MATCH(B33,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1990,12 +1601,8 @@
       <c r="H34" t="s">
         <v>99</v>
       </c>
-      <c r="I34" t="b">
-        <f>ISNUMBER(MATCH(B34,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2020,12 +1627,8 @@
       <c r="H35" t="s">
         <v>98</v>
       </c>
-      <c r="I35" t="b">
-        <f>ISNUMBER(MATCH(B35,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2050,12 +1653,8 @@
       <c r="H36" t="s">
         <v>102</v>
       </c>
-      <c r="I36" t="b">
-        <f>ISNUMBER(MATCH(B36,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2080,12 +1679,8 @@
       <c r="H37" t="s">
         <v>98</v>
       </c>
-      <c r="I37" t="b">
-        <f>ISNUMBER(MATCH(B37,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2102,7 +1697,7 @@
         <v>0.85</v>
       </c>
       <c r="F38">
-        <v>0.48131185738930998</v>
+        <v>0.48131185738931</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -2110,12 +1705,8 @@
       <c r="H38" t="s">
         <v>98</v>
       </c>
-      <c r="I38" t="b">
-        <f>ISNUMBER(MATCH(B38,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2140,12 +1731,8 @@
       <c r="H39" t="s">
         <v>98</v>
       </c>
-      <c r="I39" t="b">
-        <f>ISNUMBER(MATCH(B39,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2170,12 +1757,8 @@
       <c r="H40" t="s">
         <v>98</v>
       </c>
-      <c r="I40" t="b">
-        <f>ISNUMBER(MATCH(B40,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2200,28 +1783,21 @@
       <c r="H41" t="s">
         <v>103</v>
       </c>
-      <c r="I41" t="b">
-        <f>ISNUMBER(MATCH(B41,'[1]Index Composition'!$B$2:$B$41,0))</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2232,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2243,7 +1819,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2254,7 +1830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2265,7 +1841,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2278,21 +1854,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +1876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2314,7 +1887,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -2325,7 +1898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -2336,7 +1909,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -2349,8 +1922,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>